--- a/Restaurant equipment sales system(Schemas)/Gantt-chart and time table/Milestone and task project timeline.xlsx
+++ b/Restaurant equipment sales system(Schemas)/Gantt-chart and time table/Milestone and task project timeline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ABDOANTR\Desktop\Restaurant equipment sales system(Schemas)\Gantt-chart and time table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B51A67D-762E-41B0-9647-26C73F9C1C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78319E47-B032-4324-8094-2FA420160749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
   <si>
     <t>الأسبوع</t>
   </si>
@@ -767,6 +767,18 @@
     <xf numFmtId="165" fontId="10" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -835,18 +847,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1237,8 +1237,8 @@
   </sheetPr>
   <dimension ref="B1:AC25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AC11" sqref="AC11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1265,17 +1265,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:29" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="56">
+      <c r="C1" s="65"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="60">
         <v>45582</v>
       </c>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="58"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="62"/>
     </row>
     <row r="2" spans="2:29" ht="7.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AC2" s="3"/>
@@ -1362,12 +1362,12 @@
       <c r="AB3" s="34">
         <v>26</v>
       </c>
-      <c r="AC3" s="40" t="s">
+      <c r="AC3" s="44" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:29" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="52" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="36">
@@ -1474,10 +1474,10 @@
         <f t="shared" si="2"/>
         <v>45757</v>
       </c>
-      <c r="AC4" s="41"/>
+      <c r="AC4" s="45"/>
     </row>
     <row r="5" spans="2:29" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="49"/>
+      <c r="B5" s="53"/>
       <c r="C5" s="38">
         <f>C4</f>
         <v>45582</v>
@@ -1582,10 +1582,10 @@
         <f t="shared" si="5"/>
         <v>45757</v>
       </c>
-      <c r="AC5" s="42"/>
+      <c r="AC5" s="46"/>
     </row>
     <row r="6" spans="2:29" ht="82.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="55" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="21" t="s">
@@ -1623,8 +1623,8 @@
       </c>
     </row>
     <row r="7" spans="2:29" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="52"/>
-      <c r="C7" s="66" t="s">
+      <c r="B7" s="56"/>
+      <c r="C7" s="43" t="s">
         <v>50</v>
       </c>
       <c r="D7" s="22" t="s">
@@ -1659,8 +1659,8 @@
       </c>
     </row>
     <row r="8" spans="2:29" ht="79.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="52"/>
-      <c r="C8" s="66" t="s">
+      <c r="B8" s="56"/>
+      <c r="C8" s="43" t="s">
         <v>50</v>
       </c>
       <c r="D8" s="23" t="s">
@@ -1695,8 +1695,8 @@
       </c>
     </row>
     <row r="9" spans="2:29" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="52"/>
-      <c r="C9" s="63"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="40"/>
       <c r="D9" s="20" t="s">
         <v>50</v>
       </c>
@@ -1731,12 +1731,12 @@
       </c>
     </row>
     <row r="10" spans="2:29" ht="76.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="63"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="66" t="s">
+      <c r="C10" s="40"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="43" t="s">
         <v>51</v>
       </c>
       <c r="F10" s="24" t="s">
@@ -1768,12 +1768,14 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="2:29" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="50"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="20"/>
+    <row r="11" spans="2:29" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="54"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="43" t="s">
+        <v>50</v>
+      </c>
       <c r="G11" s="25" t="s">
         <v>18</v>
       </c>
@@ -1803,18 +1805,18 @@
       </c>
     </row>
     <row r="12" spans="2:29" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="50"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="66" t="s">
+      <c r="B12" s="54"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="43" t="s">
         <v>50</v>
       </c>
       <c r="H12" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="65"/>
+      <c r="I12" s="42"/>
       <c r="J12" s="5"/>
       <c r="K12" s="4"/>
       <c r="L12" s="5"/>
@@ -1838,14 +1840,16 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="2:29" ht="61.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="50"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="20"/>
+    <row r="13" spans="2:29" ht="76.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="54"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="I13" s="27" t="s">
         <v>20</v>
       </c>
@@ -1873,7 +1877,7 @@
       </c>
     </row>
     <row r="14" spans="2:29" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="47" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="10"/>
@@ -1883,10 +1887,10 @@
       <c r="G14" s="10"/>
       <c r="H14" s="11"/>
       <c r="I14" s="10"/>
-      <c r="J14" s="59" t="s">
+      <c r="J14" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="K14" s="59"/>
+      <c r="K14" s="63"/>
       <c r="L14" s="11"/>
       <c r="M14" s="10"/>
       <c r="N14" s="11"/>
@@ -1909,7 +1913,7 @@
       </c>
     </row>
     <row r="15" spans="2:29" ht="61.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="43"/>
+      <c r="B15" s="47"/>
       <c r="C15" s="10"/>
       <c r="D15" s="11"/>
       <c r="E15" s="10"/>
@@ -1918,10 +1922,10 @@
       <c r="H15" s="11"/>
       <c r="I15" s="10"/>
       <c r="J15" s="11"/>
-      <c r="L15" s="47" t="s">
+      <c r="L15" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="M15" s="47"/>
+      <c r="M15" s="51"/>
       <c r="N15" s="11"/>
       <c r="O15" s="10"/>
       <c r="P15" s="11"/>
@@ -1942,7 +1946,7 @@
       </c>
     </row>
     <row r="16" spans="2:29" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="43"/>
+      <c r="B16" s="47"/>
       <c r="C16" s="10"/>
       <c r="D16" s="11"/>
       <c r="E16" s="10"/>
@@ -1975,7 +1979,7 @@
       </c>
     </row>
     <row r="17" spans="2:29" ht="53.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="48" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="10"/>
@@ -1990,10 +1994,10 @@
       <c r="L17" s="11"/>
       <c r="M17" s="10"/>
       <c r="N17" s="11"/>
-      <c r="O17" s="59" t="s">
+      <c r="O17" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="P17" s="59"/>
+      <c r="P17" s="63"/>
       <c r="Q17" s="10"/>
       <c r="R17" s="11"/>
       <c r="S17" s="10"/>
@@ -2011,7 +2015,7 @@
       </c>
     </row>
     <row r="18" spans="2:29" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="44"/>
+      <c r="B18" s="48"/>
       <c r="C18" s="10"/>
       <c r="D18" s="11"/>
       <c r="E18" s="10"/>
@@ -2026,10 +2030,10 @@
       <c r="N18" s="11"/>
       <c r="O18" s="10"/>
       <c r="P18" s="11"/>
-      <c r="Q18" s="47" t="s">
+      <c r="Q18" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="R18" s="47"/>
+      <c r="R18" s="51"/>
       <c r="S18" s="10"/>
       <c r="T18" s="11"/>
       <c r="U18" s="10"/>
@@ -2045,7 +2049,7 @@
       </c>
     </row>
     <row r="19" spans="2:29" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="44"/>
+      <c r="B19" s="48"/>
       <c r="C19" s="10"/>
       <c r="D19" s="11"/>
       <c r="E19" s="10"/>
@@ -2061,10 +2065,10 @@
       <c r="O19" s="10"/>
       <c r="P19" s="11"/>
       <c r="R19" s="11"/>
-      <c r="S19" s="45" t="s">
+      <c r="S19" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="T19" s="45"/>
+      <c r="T19" s="49"/>
       <c r="U19" s="10"/>
       <c r="V19" s="11"/>
       <c r="W19" s="10"/>
@@ -2078,7 +2082,7 @@
       </c>
     </row>
     <row r="20" spans="2:29" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="44"/>
+      <c r="B20" s="48"/>
       <c r="C20" s="10"/>
       <c r="D20" s="20"/>
       <c r="E20" s="10"/>
@@ -2096,10 +2100,10 @@
       <c r="Q20" s="10"/>
       <c r="R20" s="11"/>
       <c r="T20" s="11"/>
-      <c r="U20" s="46" t="s">
+      <c r="U20" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="V20" s="46"/>
+      <c r="V20" s="50"/>
       <c r="W20" s="10"/>
       <c r="X20" s="11"/>
       <c r="Y20" s="12"/>
@@ -2111,7 +2115,7 @@
       </c>
     </row>
     <row r="21" spans="2:29" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="55" t="s">
+      <c r="B21" s="59" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="10"/>
@@ -2147,7 +2151,7 @@
       </c>
     </row>
     <row r="22" spans="2:29" ht="79.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="55"/>
+      <c r="B22" s="59"/>
       <c r="C22" s="10"/>
       <c r="D22" s="11"/>
       <c r="E22" s="10"/>
@@ -2181,7 +2185,7 @@
       </c>
     </row>
     <row r="23" spans="2:29" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="55"/>
+      <c r="B23" s="59"/>
       <c r="C23" s="10"/>
       <c r="D23" s="11"/>
       <c r="E23" s="10"/>
@@ -2215,7 +2219,7 @@
       </c>
     </row>
     <row r="24" spans="2:29" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="55"/>
+      <c r="B24" s="59"/>
       <c r="C24" s="10"/>
       <c r="D24" s="11"/>
       <c r="E24" s="10"/>
@@ -2249,7 +2253,7 @@
       </c>
     </row>
     <row r="25" spans="2:29" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="55"/>
+      <c r="B25" s="59"/>
       <c r="C25" s="10"/>
       <c r="D25" s="11"/>
       <c r="E25" s="10"/>
@@ -2274,10 +2278,10 @@
       <c r="X25" s="11"/>
       <c r="Y25" s="12"/>
       <c r="Z25" s="11"/>
-      <c r="AA25" s="53" t="s">
+      <c r="AA25" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="AB25" s="54"/>
+      <c r="AB25" s="58"/>
       <c r="AC25" s="14" t="s">
         <v>47</v>
       </c>
